--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_28/Level_Title_Blank.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_28/Level_Title_Blank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\ram.sin\git_selenium\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\validation_usecase_28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lomt_automation\src\main\java\lomt\pearson\fileupload\nals_school_global\producttoc\validation_usecase_28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
   <si>
     <t>Program Title</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>Andorra</t>
   </si>
   <si>
     <t>Alaska</t>
@@ -749,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" activeCellId="1" sqref="D13 D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -788,23 +785,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -834,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_28/Level_Title_Blank.xlsx
+++ b/src/main/java/lomt/pearson/fileupload/nals_school_global/producttoc/validation_usecase_28/Level_Title_Blank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="114">
   <si>
     <t>Program Title</t>
   </si>
@@ -365,7 +365,7 @@
     <t>updated</t>
   </si>
   <si>
-    <t>ProductTitle1</t>
+    <t>ProductTitle1-22feb_7:00</t>
   </si>
 </sst>
 </file>
@@ -414,12 +414,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -449,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +469,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -904,7 +913,7 @@
       <c r="C13" s="4">
         <v>1</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4">
         <v>1</v>
       </c>
@@ -935,9 +944,7 @@
       <c r="F14" s="4">
         <v>6</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>30</v>
-      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
         <v>17</v>
